--- a/ITI/MHD/4.0.2/StructureDefinition-IHE.MHD.FindDocumentReferencesResponseMessage.xlsx
+++ b/ITI/MHD/4.0.2/StructureDefinition-IHE.MHD.FindDocumentReferencesResponseMessage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-01T17:09:55-05:00</t>
+    <t>2021-11-08T08:32:25-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/MHD/4.0.2/StructureDefinition-IHE.MHD.FindDocumentReferencesResponseMessage.xlsx
+++ b/ITI/MHD/4.0.2/StructureDefinition-IHE.MHD.FindDocumentReferencesResponseMessage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T08:32:25-06:00</t>
+    <t>2021-11-08T19:10:05-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
